--- a/Data/aearep-502/candidatepackages.xlsx
+++ b/Data/aearep-502/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,9 +22,6 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
@@ -40,33 +37,30 @@
     <t>outreg</t>
   </si>
   <si>
+    <t>rd</t>
+  </si>
+  <si>
     <t>sxpose</t>
   </si>
   <si>
-    <t>rd</t>
-  </si>
-  <si>
     <t>texsave</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>seq</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
     <t>report</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
     <t>split</t>
   </si>
   <si>
@@ -76,13 +70,16 @@
     <t>running</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
     <t>irr</t>
   </si>
   <si>
-    <t>median</t>
-  </si>
-  <si>
-    <t>delta</t>
+    <t>bys</t>
   </si>
   <si>
     <t>combine</t>
@@ -91,9 +88,6 @@
     <t>nearest</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
     <t>effects</t>
   </si>
   <si>
@@ -103,12 +97,6 @@
     <t>next</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>ppschromy</t>
   </si>
   <si>
@@ -127,9 +115,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-502</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-502/117431</t>
   </si>
   <si>
@@ -142,16 +127,10 @@
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
     <t>Master.do</t>
   </si>
   <si>
     <t>Master_only_monte_carlo.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>BalanceTables.do</t>
@@ -249,7 +228,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D29"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -257,13 +236,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -283,7 +262,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -295,7 +274,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -307,7 +286,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -319,7 +298,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -331,7 +310,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -343,7 +322,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -355,7 +334,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -367,7 +346,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -379,7 +358,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -391,10 +370,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>267</v>
+        <v>411</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.13586777448654175</v>
       </c>
       <c r="D12"/>
     </row>
@@ -403,10 +382,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>279</v>
+        <v>499</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D13"/>
     </row>
@@ -415,10 +394,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>385</v>
+        <v>563</v>
       </c>
       <c r="C14">
-        <v>0.12765252590179443</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D14"/>
     </row>
@@ -427,10 +406,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>564</v>
+        <v>611</v>
       </c>
       <c r="C15">
-        <v>0.18700265884399414</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D15"/>
     </row>
@@ -439,10 +418,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="C16">
-        <v>0.18733422458171844</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D16"/>
     </row>
@@ -451,10 +430,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>566</v>
+        <v>712</v>
       </c>
       <c r="C17">
-        <v>0.18766577541828156</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D17"/>
     </row>
@@ -463,10 +442,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>606</v>
+        <v>884</v>
       </c>
       <c r="C18">
-        <v>0.20092837512493134</v>
+        <v>0.29223141074180603</v>
       </c>
       <c r="D18"/>
     </row>
@@ -475,10 +454,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>745</v>
+        <v>955</v>
       </c>
       <c r="C19">
-        <v>0.24701590836048126</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D19"/>
     </row>
@@ -487,10 +466,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>797</v>
+        <v>1125</v>
       </c>
       <c r="C20">
-        <v>0.2642572820186615</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D20"/>
     </row>
@@ -499,10 +478,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1123</v>
+        <v>1163</v>
       </c>
       <c r="C21">
-        <v>0.37234747409820557</v>
+        <v>0.38446280360221863</v>
       </c>
       <c r="D21"/>
     </row>
@@ -511,10 +490,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1133</v>
+        <v>1306</v>
       </c>
       <c r="C22">
-        <v>0.37566313147544861</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D22"/>
     </row>
@@ -523,10 +502,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1194</v>
+        <v>1414</v>
       </c>
       <c r="C23">
-        <v>0.39588859677314758</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D23"/>
     </row>
@@ -535,10 +514,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1423</v>
+        <v>1469</v>
       </c>
       <c r="C24">
-        <v>0.47181698679924011</v>
+        <v>0.48561984300613403</v>
       </c>
       <c r="D24"/>
     </row>
@@ -547,10 +526,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1444</v>
+        <v>1497</v>
       </c>
       <c r="C25">
-        <v>0.47877985239028931</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D25"/>
     </row>
@@ -559,10 +538,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1472</v>
+        <v>1767</v>
       </c>
       <c r="C26">
-        <v>0.48806366324424744</v>
+        <v>0.58413225412368774</v>
       </c>
       <c r="D26"/>
     </row>
@@ -571,10 +550,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1660</v>
+        <v>1880</v>
       </c>
       <c r="C27">
-        <v>0.55039787292480469</v>
+        <v>0.62148761749267578</v>
       </c>
       <c r="D27"/>
     </row>
@@ -583,10 +562,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1755</v>
+        <v>2105</v>
       </c>
       <c r="C28">
-        <v>0.58189654350280762</v>
+        <v>0.69586777687072754</v>
       </c>
       <c r="D28"/>
     </row>
@@ -595,60 +574,12 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1798</v>
+        <v>2436</v>
       </c>
       <c r="C29">
-        <v>0.5961538553237915</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>1817</v>
-      </c>
-      <c r="C30">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1859</v>
-      </c>
-      <c r="C31">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D31"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>2169</v>
-      </c>
-      <c r="C32">
-        <v>0.71916443109512329</v>
-      </c>
-      <c r="D32"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>2424</v>
-      </c>
-      <c r="C33">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D33"/>
     </row>
   </sheetData>
 </worksheet>
@@ -656,191 +587,175 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
